--- a/Docs importantes/Experimento 4/lsTodasVSlsPareto.xlsx
+++ b/Docs importantes/Experimento 4/lsTodasVSlsPareto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8AE8D-D2C9-4047-82FF-2EDE25CE05DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F60B86B-1F26-4A34-9939-ED237276276F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07CB7ADB-26CA-43A6-B91F-6B0263407352}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07CB7ADB-26CA-43A6-B91F-6B0263407352}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -196,15 +196,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,13 +224,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,114 +566,129 @@
   <dimension ref="A4:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <f>AVERAGE(B9:B32)</f>
         <v>0.13891937755343034</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:H5" si="0">AVERAGE(C9:C32)</f>
         <v>0.51667474327137375</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>6.3404714681743565E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>757.95135974882089</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>6735.958333333333</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>0.86752157706523558</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>210.83805769414923</v>
       </c>
-      <c r="I5" s="1">
-        <v>37880.919000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5" s="4">
+        <f>37880.919/4.39</f>
+        <v>8628.9109339407751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <f>AVERAGE(I9:I32)</f>
         <v>0.61995918189713617</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:H6" si="1">AVERAGE(J9:J32)</f>
         <v>0.47096149643297375</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>0.11121224153942376</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>876.66980919775403</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>5368.583333333333</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>0.86873882199178565</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>212.28113545835492</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>6205.7449999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -690,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -737,7 +782,7 @@
         <v>142.63518834616599</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -784,7 +829,7 @@
         <v>94.280024862863399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -831,7 +876,7 @@
         <v>279.90000345683399</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -878,7 +923,7 @@
         <v>153.53145203166599</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -925,7 +970,7 @@
         <v>183.53083069640201</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -972,7 +1017,7 @@
         <v>110.94547120259401</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1064,7 @@
         <v>484.73095673423001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1111,7 @@
         <v>106.08630499112699</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1158,7 @@
         <v>86.276817245813106</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1205,7 @@
         <v>93.581270583294298</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1207,7 +1252,7 @@
         <v>169.670436134422</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1299,7 @@
         <v>272.70159802474097</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1346,7 @@
         <v>74.007189813818798</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1348,7 +1393,7 @@
         <v>410.07340461850202</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1440,7 @@
         <v>449.60294151509299</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1487,7 @@
         <v>144.313814875926</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1489,7 +1534,7 @@
         <v>31.983854539423099</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1536,7 +1581,7 @@
         <v>35.501569951469598</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1628,7 @@
         <v>33.010593332356301</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1630,7 +1675,7 @@
         <v>16.754151735603401</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1677,7 +1722,7 @@
         <v>1695.38479178222</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1769,7 @@
         <v>8.8418932024575696</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1771,7 +1816,7 @@
         <v>7.5132073004211497</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>

--- a/Docs importantes/Experimento 4/lsTodasVSlsPareto.xlsx
+++ b/Docs importantes/Experimento 4/lsTodasVSlsPareto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F60B86B-1F26-4A34-9939-ED237276276F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68042046-4FE9-4928-860E-48F8F9BA405E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07CB7ADB-26CA-43A6-B91F-6B0263407352}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07CB7ADB-26CA-43A6-B91F-6B0263407352}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>GRASPConstructive_Criterion1_Seed_13_SolCount_700_LS_Swap</t>
   </si>
@@ -142,21 +142,6 @@
   </si>
   <si>
     <t>GKD-c_1_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-a_9_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-b_12_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_18_n50_m15.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_33_n125_m12.txt</t>
-  </si>
-  <si>
-    <t>SOM-b_2_n100_m20.txt</t>
   </si>
   <si>
     <t>Time(s)</t>
@@ -566,129 +551,129 @@
   <dimension ref="A4:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4">
         <f>AVERAGE(B9:B32)</f>
-        <v>0.13891937755343034</v>
+        <v>0.1265180616650132</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:H5" si="0">AVERAGE(C9:C32)</f>
-        <v>0.51667474327137375</v>
+        <v>0.54317990450841291</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3404714681743565E-2</v>
+        <v>4.2654022946470291E-2</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>757.95135974882089</v>
+        <v>689.27708645629048</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>6735.958333333333</v>
+        <v>6746.2105263157891</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>0.86752157706523558</v>
+        <v>0.86652109742238204</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>210.83805769414923</v>
+        <v>168.57875206489064</v>
       </c>
       <c r="I5" s="4">
         <f>37880.919/4.39</f>
         <v>8628.9109339407751</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <f>AVERAGE(I9:I32)</f>
-        <v>0.61995918189713617</v>
+        <v>0.58265250197828511</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6:H6" si="1">AVERAGE(J9:J32)</f>
-        <v>0.47096149643297375</v>
+        <v>0.50601656382133253</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.11121224153942376</v>
+        <v>8.4842500065082524E-2</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>876.66980919775403</v>
+        <v>793.95149843960166</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>5368.583333333333</v>
+        <v>5517</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>0.86873882199178565</v>
+        <v>0.86229768039227661</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>212.28113545835492</v>
+        <v>176.65072226088114</v>
       </c>
       <c r="I6" s="4">
         <v>6205.7449999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -735,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -782,7 +767,7 @@
         <v>142.63518834616599</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -829,7 +814,7 @@
         <v>94.280024862863399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -876,7 +861,7 @@
         <v>279.90000345683399</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -923,7 +908,7 @@
         <v>153.53145203166599</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -970,7 +955,7 @@
         <v>183.53083069640201</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1002,7 @@
         <v>110.94547120259401</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1049,7 @@
         <v>484.73095673423001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1111,7 +1096,7 @@
         <v>106.08630499112699</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1143,7 @@
         <v>86.276817245813106</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1190,7 @@
         <v>93.581270583294298</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1237,7 @@
         <v>169.670436134422</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1284,7 @@
         <v>272.70159802474097</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1346,7 +1331,7 @@
         <v>74.007189813818798</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1378,7 @@
         <v>410.07340461850202</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1425,7 @@
         <v>449.60294151509299</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1487,7 +1472,7 @@
         <v>144.313814875926</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1534,7 +1519,7 @@
         <v>31.983854539423099</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +1566,7 @@
         <v>35.501569951469598</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1628,240 +1613,85 @@
         <v>33.010593332356301</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.27018689892941E-2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.45066203508609298</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7.1250943085564206E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>67.648694296369598</v>
-      </c>
-      <c r="F28" s="1">
-        <v>11022</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.76580674572091001</v>
-      </c>
-      <c r="H28" s="1">
-        <v>18.954571608836702</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.96175278622087101</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.32255873257692702</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.20054280416025</v>
-      </c>
-      <c r="L28" s="1">
-        <v>79.193371150415999</v>
-      </c>
-      <c r="M28" s="1">
-        <v>7896</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.805096742990415</v>
-      </c>
-      <c r="O28" s="1">
-        <v>16.754151735603401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4.84946092247125E-2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.46088504911563299</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5.9022801302931603E-2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4687.7757388874797</v>
-      </c>
-      <c r="F29" s="1">
-        <v>22353</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.69571264105598196</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1811.4068337532201</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.88430319680319602</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.38415327694649698</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.105432380438242</v>
-      </c>
-      <c r="L29" s="1">
-        <v>5520.91684318835</v>
-      </c>
-      <c r="M29" s="1">
-        <v>16016</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.735282644252235</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1695.38479178222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.20588235294117599</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.32464678178963902</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.18681318681318601</v>
-      </c>
-      <c r="E30" s="1">
-        <v>102.643422644064</v>
-      </c>
-      <c r="F30" s="1">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.969310601180571</v>
-      </c>
-      <c r="H30" s="1">
-        <v>8.8418932024575696</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.68181818181818099</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.24739926739926699</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="L30" s="1">
-        <v>90.518180927017298</v>
-      </c>
-      <c r="M30" s="1">
-        <v>44</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.96674530643733703</v>
-      </c>
-      <c r="O30" s="1">
-        <v>8.8418932024575696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.15151515151515099</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.41679662118258598</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.21052631578947301</v>
-      </c>
-      <c r="E31" s="1">
-        <v>74.060478039691304</v>
-      </c>
-      <c r="F31" s="1">
-        <v>33</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.95372974020109902</v>
-      </c>
-      <c r="H31" s="1">
-        <v>6.1699120160924998</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.73529411764705799</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.29417153996101297</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L31" s="1">
-        <v>73.050233282495199</v>
-      </c>
-      <c r="M31" s="1">
-        <v>34</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.973325723001359</v>
-      </c>
-      <c r="O31" s="1">
-        <v>7.5132073004211497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.51162790697674398</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.42678516567917402</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.183673469387755</v>
-      </c>
-      <c r="E32" s="1">
-        <v>162.43965743457699</v>
-      </c>
-      <c r="F32" s="1">
-        <v>43</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.97205727038183598</v>
-      </c>
-      <c r="H32" s="1">
-        <v>11.743884846051699</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.44047838490234797</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.17777777777777701</v>
-      </c>
-      <c r="L32" s="1">
-        <v>191.318321845387</v>
-      </c>
-      <c r="M32" s="1">
-        <v>33</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.98562538366825703</v>
-      </c>
-      <c r="O32" s="1">
-        <v>9.8894840230733703</v>
-      </c>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
